--- a/biology/Botanique/Begonia_octopetala/Begonia_octopetala.xlsx
+++ b/biology/Botanique/Begonia_octopetala/Begonia_octopetala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia octopetala est une plante herbacée annuelle de la famille des Begoniaceae. Elle pousse dans la Cordillère des Andes jusqu'à 3000 mètres d'altitude.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Atteignant 60 cm de hauteur, ce Bégonia aux fleurs blanches larges d'une dizaine de centimètres, à huit pétales en général et aux longues tiges rouges, pousse et fleurit durant la saison des pluies (janvier-février-mars) sur les vieux murs, sur les rochers ou au pied des cactus columnaires (Cereus). La plante disparaît totalement à la saison sèche (mai-septembre).
 Dans la province de Parinacochas (Ayacucho, Pérou), on la nomme achanqaray en quechua ou en espagnol pata de leon (patte de lion); la fleur rappelant par sa forme et par sa taille l'empreinte du puma (Felis concolor).
@@ -543,9 +557,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Équateur, Pérou[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Équateur, Pérou.
 </t>
         </is>
       </c>
@@ -574,12 +590,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1788 par le naturaliste français Charles Louis L'Héritier de Brutelle (1746-1800). L'épithète spécifique octopetala signifie « qui présente huit pétales »[3].
-Dans la classification classique de Cronquist (1981)[4] aussi bien que dans la classification phylogénétique APG (1998)[5] et les suivantes, le genre Begonia est assigné à la famille des Begoniaceae. L'espèce fait partie de la section Eupetalum[6].
-Liste des sous-espèces
-Selon Tropicos                                           (12 septembre 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1788 par le naturaliste français Charles Louis L'Héritier de Brutelle (1746-1800). L'épithète spécifique octopetala signifie « qui présente huit pétales ».
+Dans la classification classique de Cronquist (1981) aussi bien que dans la classification phylogénétique APG (1998) et les suivantes, le genre Begonia est assigné à la famille des Begoniaceae. L'espèce fait partie de la section Eupetalum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begonia_octopetala</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_octopetala</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Begonia octopetala subsp. octopetala
 sous-espèce Begonia octopetala subsp. ovatoformis Irmsch.</t>
         </is>
